--- a/APM files/141737674/141737674 EXPORT RT&RP Cloud Export_Clone.xlsx
+++ b/APM files/141737674/141737674 EXPORT RT&RP Cloud Export_Clone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/141737674/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412EA071-0FB3-4440-83AE-FA7AC2CF4F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B77A209-3FC5-AD4D-B9A7-35B979E06224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="5560" windowWidth="24300" windowHeight="14800" xr2:uid="{2547B3A6-92DE-4DC7-BA33-295CE429FBF9}"/>
+    <workbookView xWindow="25600" yWindow="620" windowWidth="25600" windowHeight="26820" xr2:uid="{2547B3A6-92DE-4DC7-BA33-295CE429FBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -420,7 +420,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -730,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C0776E-D31D-4196-98AA-2098101953BE}">
-  <dimension ref="A1:BA74"/>
+  <dimension ref="A1:BA48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -958,360 +969,233 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A48">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
